--- a/Лабы/Описание модели данных примера.xlsx
+++ b/Лабы/Описание модели данных примера.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сущности КМД" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>Имя атрибута</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Описание атрибута</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Имя домена данных </t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Область допустимых значений</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Бизнес-правила</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Обязательное значение</t>
   </si>
   <si>
-    <t>Идентификатор книги</t>
-  </si>
-  <si>
     <t>Уникальное значение &lt;=10000</t>
   </si>
   <si>
@@ -187,18 +178,9 @@
     <t>Единственный экземпляр книги в бумажном переплёте</t>
   </si>
   <si>
-    <t>Ссылка на позицию Классификатора ВИД_ИЗДАНИЯ</t>
-  </si>
-  <si>
     <t>Ссылка на позицию Реестра ИЗДАТЕЛЬСТВО</t>
   </si>
   <si>
-    <t>Ссылка на позицию Реестра ЧИТАТЕЛЬ</t>
-  </si>
-  <si>
-    <t>Ссылка на позицию Реестра РАЗМЕЩЕНИЕ (мест хранения) книг</t>
-  </si>
-  <si>
     <t>Соответствует значениям РАЗМЕЩЕНИЕ.ID</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>КНИГА - ТЕМА</t>
   </si>
   <si>
-    <t>КНИГА - ВИД_ИЗДАНИЯ</t>
-  </si>
-  <si>
     <t>КНИГА - СОЗДАТЕЛЬ</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>КНИГА - ЧИТАТЕЛЬ</t>
   </si>
   <si>
-    <t>СОЗДАТЕЛЬ - РОЛЬ_СОЗДАТЕЛЯ</t>
-  </si>
-  <si>
     <t>ИЗДАТЕЛЬСТВО - ГОРОД</t>
   </si>
   <si>
@@ -266,9 +242,6 @@
   </si>
   <si>
     <t>многие ко многим</t>
-  </si>
-  <si>
-    <t>Ссылка на позицию Классификатора ТЕМА</t>
   </si>
   <si>
     <t>Соответствует значениям ТЕМА.ID</t>
@@ -698,12 +671,6 @@
     <t>книга_ID</t>
   </si>
   <si>
-    <t>название</t>
-  </si>
-  <si>
-    <t>аннотация</t>
-  </si>
-  <si>
     <t>тема_ID</t>
   </si>
   <si>
@@ -716,9 +683,6 @@
     <t>издание_год</t>
   </si>
   <si>
-    <t>место_ID</t>
-  </si>
-  <si>
     <t>читатель_ID</t>
   </si>
   <si>
@@ -726,13 +690,196 @@
   </si>
   <si>
     <t>СОЗДАТЕЛЬ_РОЛЬ</t>
+  </si>
+  <si>
+    <t>Тип ключевого атрибута</t>
+  </si>
+  <si>
+    <t>КНИГА - ИЗДАНИЕ_ВИД</t>
+  </si>
+  <si>
+    <t>СОЗДАТЕЛЬ - СОЗДАТЕЛь_РОЛЬ</t>
+  </si>
+  <si>
+    <t>размещение_ID</t>
+  </si>
+  <si>
+    <t>книга_название</t>
+  </si>
+  <si>
+    <t>книга_аннотация</t>
+  </si>
+  <si>
+    <t>создатель_ID</t>
+  </si>
+  <si>
+    <t>создатель_ФИО</t>
+  </si>
+  <si>
+    <t>идентификатор</t>
+  </si>
+  <si>
+    <t>ссылка</t>
+  </si>
+  <si>
+    <t>Фамилия, имя и отчетство или  инициалы создателя (редактора, автора, переводчика, художника и т.п.)</t>
+  </si>
+  <si>
+    <t>роль_ID</t>
+  </si>
+  <si>
+    <t>роль_название</t>
+  </si>
+  <si>
+    <t>Название роли создателя: редактора, автора, переводчика, художника и т.п.</t>
+  </si>
+  <si>
+    <t>тема_название</t>
+  </si>
+  <si>
+    <t>Название темы книги</t>
+  </si>
+  <si>
+    <t>вид_изд_ID</t>
+  </si>
+  <si>
+    <t>вид_изд_название</t>
+  </si>
+  <si>
+    <t>Название вида издания</t>
+  </si>
+  <si>
+    <t>УЧАСТИЕ</t>
+  </si>
+  <si>
+    <t>Часть составного ключа участия и ссылка на книгу</t>
+  </si>
+  <si>
+    <t>Часть составного ключа участия и ссылка на создателя</t>
+  </si>
+  <si>
+    <t>Часть составного ключа участия и ссылка на роль создателя</t>
+  </si>
+  <si>
+    <t>издательство_имя</t>
+  </si>
+  <si>
+    <t>город_ID</t>
+  </si>
+  <si>
+    <t>часть ключа, ссылка</t>
+  </si>
+  <si>
+    <t>Наименование издательства</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Класификатора ГОРОД</t>
+  </si>
+  <si>
+    <t>город_имя</t>
+  </si>
+  <si>
+    <t>страна_ID</t>
+  </si>
+  <si>
+    <t>страна_имя</t>
+  </si>
+  <si>
+    <t>читатель_ФИО</t>
+  </si>
+  <si>
+    <t>читатель_телефон</t>
+  </si>
+  <si>
+    <t>дата_выдачи</t>
+  </si>
+  <si>
+    <t>срок_возврата</t>
+  </si>
+  <si>
+    <t>Наименование города</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Классификатора СТРАНА</t>
+  </si>
+  <si>
+    <t>Идентификатор Реестра КНИГА</t>
+  </si>
+  <si>
+    <t>Идентификатор Классификатора ИЗДАНИЕ_ВИД</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Классификатора ИЗДАНИЕ_ВИД (вид издания)</t>
+  </si>
+  <si>
+    <t>Идентификатор Классификатора ТЕМА</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Классификатора ТЕМА (тема книги)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ИЗДАНИЕ_ВИД</t>
+  </si>
+  <si>
+    <t>шкаф_N</t>
+  </si>
+  <si>
+    <t>полка_N</t>
+  </si>
+  <si>
+    <t>Идентификатор Классификатора СОЗДАТЕЛЬ_РОЛЬ</t>
+  </si>
+  <si>
+    <t>Идентификатор Реестра СОЗДАТЕЛЬ</t>
+  </si>
+  <si>
+    <t>Идентификатор Реестра ИЗДАТЕЛЬСТВО</t>
+  </si>
+  <si>
+    <t>Идентификатор Реестра РАЗМЕЩЕНИЕ</t>
+  </si>
+  <si>
+    <t>Идентификатор Реестра ЧИТАТЕЛЬ</t>
+  </si>
+  <si>
+    <t>Идентификатор Классификатора ГОРОД</t>
+  </si>
+  <si>
+    <t>Идентификатор  Классификатора СТРАНА</t>
+  </si>
+  <si>
+    <t>Наименование страны</t>
+  </si>
+  <si>
+    <t>Фамилия, имя и отчетство или  инициалы читателя</t>
+  </si>
+  <si>
+    <t>Номер телефона читателя</t>
+  </si>
+  <si>
+    <t>Дата выдачи книги читателю</t>
+  </si>
+  <si>
+    <t>Информация о сроке возрата</t>
+  </si>
+  <si>
+    <t>Номер полки размещения книги</t>
+  </si>
+  <si>
+    <t>Номер шкафа (стеллажа) размещения книги</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Реестра РАЗМЕЩЕНИЕ (места хранения книг). Если ссылка пустая, то должна быть непустая ссылка на читателя.</t>
+  </si>
+  <si>
+    <t>Ссылка на позицию Реестра ЧИТАТЕЛЬ. Если ссылка пустая, то должна быть непустая ссылка на размещение книги.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,33 +887,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7.7"/>
-      <color rgb="FFCC0000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7.7"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -845,6 +965,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -867,31 +994,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -904,31 +1022,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -937,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -946,85 +1266,242 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1037,322 +1514,44 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1377,6 +1576,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1557,49 +1766,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:F12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:F12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="B2:F12"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="Имя сущности" dataDxfId="24"/>
-    <tableColumn id="3" name="Описание сущности" dataDxfId="23"/>
-    <tableColumn id="4" name="Тип сущности" dataDxfId="22"/>
-    <tableColumn id="5" name="Имя супертипа" dataDxfId="21"/>
-    <tableColumn id="6" name="Важные атрибуты" dataDxfId="20"/>
+    <tableColumn id="2" name="Имя сущности" dataDxfId="25"/>
+    <tableColumn id="3" name="Описание сущности" dataDxfId="24"/>
+    <tableColumn id="4" name="Тип сущности" dataDxfId="23"/>
+    <tableColumn id="5" name="Имя супертипа" dataDxfId="22"/>
+    <tableColumn id="6" name="Важные атрибуты" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B2:F11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B2:F11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B2:F11"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="Связанные сущности" dataDxfId="17"/>
-    <tableColumn id="1" name="Глагол прямой (обратной) связи" dataDxfId="16"/>
-    <tableColumn id="3" name="Описание связи" dataDxfId="15"/>
-    <tableColumn id="4" name="Тип связи" dataDxfId="14"/>
-    <tableColumn id="5" name="Обязательность связи" dataDxfId="13"/>
+    <tableColumn id="2" name="Связанные сущности" dataDxfId="18"/>
+    <tableColumn id="1" name="Глагол прямой (обратной) связи" dataDxfId="17"/>
+    <tableColumn id="3" name="Описание связи" dataDxfId="16"/>
+    <tableColumn id="4" name="Тип связи" dataDxfId="15"/>
+    <tableColumn id="5" name="Обязательность связи" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B2:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B2:K11"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Имя сущности" dataDxfId="9"/>
-    <tableColumn id="2" name="Имя атрибута" dataDxfId="8"/>
-    <tableColumn id="3" name="Описание атрибута" dataDxfId="7"/>
-    <tableColumn id="4" name="Обязательное значение" dataDxfId="6"/>
-    <tableColumn id="5" name="Имя домена данных " dataDxfId="5"/>
-    <tableColumn id="6" name="Тип данных" dataDxfId="4"/>
-    <tableColumn id="7" name="Длина / разрядность" dataDxfId="3"/>
-    <tableColumn id="8" name="Область допустимых значений" dataDxfId="2"/>
-    <tableColumn id="9" name="Бизнес-правила" dataDxfId="1"/>
-    <tableColumn id="10" name="Примеры значения атрибута" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B3:L39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" tableBorderDxfId="12">
+  <autoFilter ref="B3:L39"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Имя сущности" dataDxfId="11"/>
+    <tableColumn id="2" name="Имя атрибута" dataDxfId="10"/>
+    <tableColumn id="3" name="Описание атрибута" dataDxfId="9"/>
+    <tableColumn id="4" name="Тип ключевого атрибута" dataDxfId="8"/>
+    <tableColumn id="5" name="Обязательное значение" dataDxfId="7"/>
+    <tableColumn id="6" name="Имя домена данных " dataDxfId="6"/>
+    <tableColumn id="7" name="Тип данных" dataDxfId="5"/>
+    <tableColumn id="8" name="Длина / разрядность" dataDxfId="4"/>
+    <tableColumn id="9" name="Область допустимых значений" dataDxfId="3"/>
+    <tableColumn id="10" name="Бизнес-правила" dataDxfId="2"/>
+    <tableColumn id="11" name="Примеры значения атрибута" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1902,11 +2112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,180 +2125,180 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2118,183 +2328,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="C8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="D10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>10</v>
+      <c r="F11" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2308,337 +2518,945 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q17"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="98.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:18" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="2:18" s="3" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C4" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="2:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="2:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="42"/>
+    </row>
+    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="C32" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="C33" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C34" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="42"/>
+    </row>
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="2:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="F35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="42"/>
+    </row>
+    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="42"/>
+    </row>
+    <row r="37" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="42"/>
+    </row>
+    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="42"/>
+    </row>
+    <row r="39" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H8">
       <formula1>"Целое,Число,Строка,Код,Дата,Время,Текст,Признак"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
       <formula1>"да,нет"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>